--- a/Data/reduced_training_data.xlsx
+++ b/Data/reduced_training_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Chemical Engineering - Masters\MEng Dissertation\Code\Production Code 2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8325086D-E2D7-44E1-91F9-7334A7F09E09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1D4296-FE8B-4F6A-87DF-0C4974EF8F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
   <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Data/reduced_training_data.xlsx
+++ b/Data/reduced_training_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1D4296-FE8B-4F6A-87DF-0C4974EF8F9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775249FA-8DFE-4D8B-B51E-03C36C1657B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,19 +24,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Biomass concentration (g/L)</t>
+    <t>BC</t>
   </si>
   <si>
-    <t>Nitrate concentration (mg/L)</t>
+    <t>NC</t>
   </si>
   <si>
-    <t>Lutein production (mg/L)</t>
+    <t>LP</t>
   </si>
   <si>
-    <t>Light intensity (uE)</t>
+    <t>LI</t>
   </si>
   <si>
-    <t>Nitrate inflow concentration (M)</t>
+    <t>NIC</t>
   </si>
 </sst>
 </file>
@@ -107,7 +107,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -123,6 +123,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -467,7 +470,7 @@
   <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,19 +485,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2"/>
